--- a/Applied Data Science with Python/C2 - Applied Plotting, Charting & Data Representation in Python/Resources/Assig 4 - US Unemployment Rate.xlsx
+++ b/Applied Data Science with Python/C2 - Applied Plotting, Charting & Data Representation in Python/Resources/Assig 4 - US Unemployment Rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Labor Force Statistics from the Current Population Survey</t>
   </si>
@@ -56,7 +56,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>2008 to 2018</t>
+    <t>2000 to 2018</t>
   </si>
   <si>
     <t>Year</t>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t>Annual</t>
   </si>
 </sst>
 </file>
@@ -480,330 +483,333 @@
       <c r="M12" t="s" s="3">
         <v>27</v>
       </c>
+      <c r="N12" t="s" s="3">
+        <v>28</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="7">
-        <v>2008.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B13" t="n" s="10">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C13" t="n" s="10">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="D13" t="n" s="10">
-        <v>5.1</v>
+        <v>4.0</v>
       </c>
       <c r="E13" t="n" s="10">
-        <v>5.0</v>
+        <v>3.8</v>
       </c>
       <c r="F13" t="n" s="10">
-        <v>5.4</v>
+        <v>4.0</v>
       </c>
       <c r="G13" t="n" s="10">
-        <v>5.6</v>
+        <v>4.0</v>
       </c>
       <c r="H13" t="n" s="10">
-        <v>5.8</v>
+        <v>4.0</v>
       </c>
       <c r="I13" t="n" s="10">
-        <v>6.1</v>
+        <v>4.1</v>
       </c>
       <c r="J13" t="n" s="10">
-        <v>6.1</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n" s="10">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n" s="10">
-        <v>6.8</v>
+        <v>3.9</v>
       </c>
       <c r="M13" t="n" s="10">
-        <v>7.3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="7">
-        <v>2009.0</v>
+        <v>2001.0</v>
       </c>
       <c r="B14" t="n" s="10">
-        <v>7.8</v>
+        <v>4.2</v>
       </c>
       <c r="C14" t="n" s="10">
-        <v>8.3</v>
+        <v>4.2</v>
       </c>
       <c r="D14" t="n" s="10">
-        <v>8.7</v>
+        <v>4.3</v>
       </c>
       <c r="E14" t="n" s="10">
-        <v>9.0</v>
+        <v>4.4</v>
       </c>
       <c r="F14" t="n" s="10">
-        <v>9.4</v>
+        <v>4.3</v>
       </c>
       <c r="G14" t="n" s="10">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="n" s="10">
-        <v>9.5</v>
+        <v>4.6</v>
       </c>
       <c r="I14" t="n" s="10">
-        <v>9.6</v>
+        <v>4.9</v>
       </c>
       <c r="J14" t="n" s="10">
-        <v>9.8</v>
+        <v>5.0</v>
       </c>
       <c r="K14" t="n" s="10">
-        <v>10.0</v>
+        <v>5.3</v>
       </c>
       <c r="L14" t="n" s="10">
-        <v>9.9</v>
+        <v>5.5</v>
       </c>
       <c r="M14" t="n" s="10">
-        <v>9.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n" s="7">
-        <v>2010.0</v>
+        <v>2002.0</v>
       </c>
       <c r="B15" t="n" s="10">
-        <v>9.8</v>
+        <v>5.7</v>
       </c>
       <c r="C15" t="n" s="10">
-        <v>9.8</v>
+        <v>5.7</v>
       </c>
       <c r="D15" t="n" s="10">
-        <v>9.9</v>
+        <v>5.7</v>
       </c>
       <c r="E15" t="n" s="10">
-        <v>9.9</v>
+        <v>5.9</v>
       </c>
       <c r="F15" t="n" s="10">
-        <v>9.6</v>
+        <v>5.8</v>
       </c>
       <c r="G15" t="n" s="10">
-        <v>9.4</v>
+        <v>5.8</v>
       </c>
       <c r="H15" t="n" s="10">
-        <v>9.4</v>
+        <v>5.8</v>
       </c>
       <c r="I15" t="n" s="10">
-        <v>9.5</v>
+        <v>5.7</v>
       </c>
       <c r="J15" t="n" s="10">
-        <v>9.5</v>
+        <v>5.7</v>
       </c>
       <c r="K15" t="n" s="10">
-        <v>9.4</v>
+        <v>5.7</v>
       </c>
       <c r="L15" t="n" s="10">
-        <v>9.8</v>
+        <v>5.9</v>
       </c>
       <c r="M15" t="n" s="10">
-        <v>9.3</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n" s="7">
-        <v>2011.0</v>
+        <v>2003.0</v>
       </c>
       <c r="B16" t="n" s="10">
-        <v>9.1</v>
+        <v>5.8</v>
       </c>
       <c r="C16" t="n" s="10">
-        <v>9.0</v>
+        <v>5.9</v>
       </c>
       <c r="D16" t="n" s="10">
-        <v>9.0</v>
+        <v>5.9</v>
       </c>
       <c r="E16" t="n" s="10">
-        <v>9.1</v>
+        <v>6.0</v>
       </c>
       <c r="F16" t="n" s="10">
-        <v>9.0</v>
+        <v>6.1</v>
       </c>
       <c r="G16" t="n" s="10">
-        <v>9.1</v>
+        <v>6.3</v>
       </c>
       <c r="H16" t="n" s="10">
-        <v>9.0</v>
+        <v>6.2</v>
       </c>
       <c r="I16" t="n" s="10">
-        <v>9.0</v>
+        <v>6.1</v>
       </c>
       <c r="J16" t="n" s="10">
-        <v>9.0</v>
+        <v>6.1</v>
       </c>
       <c r="K16" t="n" s="10">
-        <v>8.8</v>
+        <v>6.0</v>
       </c>
       <c r="L16" t="n" s="10">
-        <v>8.6</v>
+        <v>5.8</v>
       </c>
       <c r="M16" t="n" s="10">
-        <v>8.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n" s="7">
-        <v>2012.0</v>
+        <v>2004.0</v>
       </c>
       <c r="B17" t="n" s="10">
-        <v>8.3</v>
+        <v>5.7</v>
       </c>
       <c r="C17" t="n" s="10">
-        <v>8.3</v>
+        <v>5.6</v>
       </c>
       <c r="D17" t="n" s="10">
-        <v>8.2</v>
+        <v>5.8</v>
       </c>
       <c r="E17" t="n" s="10">
-        <v>8.2</v>
+        <v>5.6</v>
       </c>
       <c r="F17" t="n" s="10">
-        <v>8.2</v>
+        <v>5.6</v>
       </c>
       <c r="G17" t="n" s="10">
-        <v>8.2</v>
+        <v>5.6</v>
       </c>
       <c r="H17" t="n" s="10">
-        <v>8.2</v>
+        <v>5.5</v>
       </c>
       <c r="I17" t="n" s="10">
-        <v>8.1</v>
+        <v>5.4</v>
       </c>
       <c r="J17" t="n" s="10">
-        <v>7.8</v>
+        <v>5.4</v>
       </c>
       <c r="K17" t="n" s="10">
-        <v>7.8</v>
+        <v>5.5</v>
       </c>
       <c r="L17" t="n" s="10">
-        <v>7.7</v>
+        <v>5.4</v>
       </c>
       <c r="M17" t="n" s="10">
-        <v>7.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n" s="7">
-        <v>2013.0</v>
+        <v>2005.0</v>
       </c>
       <c r="B18" t="n" s="10">
-        <v>8.0</v>
+        <v>5.3</v>
       </c>
       <c r="C18" t="n" s="10">
-        <v>7.7</v>
+        <v>5.4</v>
       </c>
       <c r="D18" t="n" s="10">
-        <v>7.5</v>
+        <v>5.2</v>
       </c>
       <c r="E18" t="n" s="10">
-        <v>7.6</v>
+        <v>5.2</v>
       </c>
       <c r="F18" t="n" s="10">
-        <v>7.5</v>
+        <v>5.1</v>
       </c>
       <c r="G18" t="n" s="10">
-        <v>7.5</v>
+        <v>5.0</v>
       </c>
       <c r="H18" t="n" s="10">
-        <v>7.3</v>
+        <v>5.0</v>
       </c>
       <c r="I18" t="n" s="10">
-        <v>7.2</v>
+        <v>4.9</v>
       </c>
       <c r="J18" t="n" s="10">
-        <v>7.2</v>
+        <v>5.0</v>
       </c>
       <c r="K18" t="n" s="10">
-        <v>7.2</v>
+        <v>5.0</v>
       </c>
       <c r="L18" t="n" s="10">
-        <v>6.9</v>
+        <v>5.0</v>
       </c>
       <c r="M18" t="n" s="10">
-        <v>6.7</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n" s="7">
-        <v>2014.0</v>
+        <v>2006.0</v>
       </c>
       <c r="B19" t="n" s="10">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="C19" t="n" s="10">
-        <v>6.7</v>
+        <v>4.8</v>
       </c>
       <c r="D19" t="n" s="10">
-        <v>6.7</v>
+        <v>4.7</v>
       </c>
       <c r="E19" t="n" s="10">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="F19" t="n" s="10">
-        <v>6.3</v>
+        <v>4.6</v>
       </c>
       <c r="G19" t="n" s="10">
-        <v>6.1</v>
+        <v>4.6</v>
       </c>
       <c r="H19" t="n" s="10">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="I19" t="n" s="10">
-        <v>6.1</v>
+        <v>4.7</v>
       </c>
       <c r="J19" t="n" s="10">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="K19" t="n" s="10">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n" s="10">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="M19" t="n" s="10">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n" s="7">
-        <v>2015.0</v>
+        <v>2007.0</v>
       </c>
       <c r="B20" t="n" s="10">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
       <c r="C20" t="n" s="10">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="D20" t="n" s="10">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="E20" t="n" s="10">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="F20" t="n" s="10">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="G20" t="n" s="10">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="H20" t="n" s="10">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="I20" t="n" s="10">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="J20" t="n" s="10">
-        <v>5.0</v>
+        <v>4.7</v>
       </c>
       <c r="K20" t="n" s="10">
-        <v>5.0</v>
+        <v>4.7</v>
       </c>
       <c r="L20" t="n" s="10">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="M20" t="n" s="10">
         <v>5.0</v>
@@ -811,124 +817,452 @@
     </row>
     <row r="21">
       <c r="A21" t="n" s="7">
-        <v>2016.0</v>
+        <v>2008.0</v>
       </c>
       <c r="B21" t="n" s="10">
-        <v>4.9</v>
+        <v>5.0</v>
       </c>
       <c r="C21" t="n" s="10">
         <v>4.9</v>
       </c>
       <c r="D21" t="n" s="10">
-        <v>5.0</v>
+        <v>5.1</v>
       </c>
       <c r="E21" t="n" s="10">
         <v>5.0</v>
       </c>
       <c r="F21" t="n" s="10">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="G21" t="n" s="10">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="H21" t="n" s="10">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="I21" t="n" s="10">
-        <v>4.9</v>
+        <v>6.1</v>
       </c>
       <c r="J21" t="n" s="10">
-        <v>5.0</v>
+        <v>6.1</v>
       </c>
       <c r="K21" t="n" s="10">
-        <v>4.9</v>
+        <v>6.5</v>
       </c>
       <c r="L21" t="n" s="10">
-        <v>4.7</v>
+        <v>6.8</v>
       </c>
       <c r="M21" t="n" s="10">
-        <v>4.7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n" s="7">
-        <v>2017.0</v>
+        <v>2009.0</v>
       </c>
       <c r="B22" t="n" s="10">
-        <v>4.7</v>
+        <v>7.8</v>
       </c>
       <c r="C22" t="n" s="10">
-        <v>4.7</v>
+        <v>8.3</v>
       </c>
       <c r="D22" t="n" s="10">
-        <v>4.4</v>
+        <v>8.7</v>
       </c>
       <c r="E22" t="n" s="10">
-        <v>4.4</v>
+        <v>9.0</v>
       </c>
       <c r="F22" t="n" s="10">
-        <v>4.4</v>
+        <v>9.4</v>
       </c>
       <c r="G22" t="n" s="10">
-        <v>4.3</v>
+        <v>9.5</v>
       </c>
       <c r="H22" t="n" s="10">
-        <v>4.3</v>
+        <v>9.5</v>
       </c>
       <c r="I22" t="n" s="10">
-        <v>4.4</v>
+        <v>9.6</v>
       </c>
       <c r="J22" t="n" s="10">
-        <v>4.2</v>
+        <v>9.8</v>
       </c>
       <c r="K22" t="n" s="10">
-        <v>4.1</v>
+        <v>10.0</v>
       </c>
       <c r="L22" t="n" s="10">
-        <v>4.2</v>
+        <v>9.9</v>
       </c>
       <c r="M22" t="n" s="10">
-        <v>4.1</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n" s="7">
+        <v>2010.0</v>
+      </c>
+      <c r="B23" t="n" s="10">
+        <v>9.8</v>
+      </c>
+      <c r="C23" t="n" s="10">
+        <v>9.8</v>
+      </c>
+      <c r="D23" t="n" s="10">
+        <v>9.9</v>
+      </c>
+      <c r="E23" t="n" s="10">
+        <v>9.9</v>
+      </c>
+      <c r="F23" t="n" s="10">
+        <v>9.6</v>
+      </c>
+      <c r="G23" t="n" s="10">
+        <v>9.4</v>
+      </c>
+      <c r="H23" t="n" s="10">
+        <v>9.4</v>
+      </c>
+      <c r="I23" t="n" s="10">
+        <v>9.5</v>
+      </c>
+      <c r="J23" t="n" s="10">
+        <v>9.5</v>
+      </c>
+      <c r="K23" t="n" s="10">
+        <v>9.4</v>
+      </c>
+      <c r="L23" t="n" s="10">
+        <v>9.8</v>
+      </c>
+      <c r="M23" t="n" s="10">
+        <v>9.3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="7">
+        <v>2011.0</v>
+      </c>
+      <c r="B24" t="n" s="10">
+        <v>9.1</v>
+      </c>
+      <c r="C24" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="D24" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="E24" t="n" s="10">
+        <v>9.1</v>
+      </c>
+      <c r="F24" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="G24" t="n" s="10">
+        <v>9.1</v>
+      </c>
+      <c r="H24" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="I24" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="J24" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="K24" t="n" s="10">
+        <v>8.8</v>
+      </c>
+      <c r="L24" t="n" s="10">
+        <v>8.6</v>
+      </c>
+      <c r="M24" t="n" s="10">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="7">
+        <v>2012.0</v>
+      </c>
+      <c r="B25" t="n" s="10">
+        <v>8.3</v>
+      </c>
+      <c r="C25" t="n" s="10">
+        <v>8.3</v>
+      </c>
+      <c r="D25" t="n" s="10">
+        <v>8.2</v>
+      </c>
+      <c r="E25" t="n" s="10">
+        <v>8.2</v>
+      </c>
+      <c r="F25" t="n" s="10">
+        <v>8.2</v>
+      </c>
+      <c r="G25" t="n" s="10">
+        <v>8.2</v>
+      </c>
+      <c r="H25" t="n" s="10">
+        <v>8.2</v>
+      </c>
+      <c r="I25" t="n" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="J25" t="n" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="K25" t="n" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="L25" t="n" s="10">
+        <v>7.7</v>
+      </c>
+      <c r="M25" t="n" s="10">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="7">
+        <v>2013.0</v>
+      </c>
+      <c r="B26" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="C26" t="n" s="10">
+        <v>7.7</v>
+      </c>
+      <c r="D26" t="n" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="E26" t="n" s="10">
+        <v>7.6</v>
+      </c>
+      <c r="F26" t="n" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="G26" t="n" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="H26" t="n" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="I26" t="n" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="J26" t="n" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="K26" t="n" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="L26" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="M26" t="n" s="10">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="7">
+        <v>2014.0</v>
+      </c>
+      <c r="B27" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="C27" t="n" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="D27" t="n" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="E27" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="F27" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="G27" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="H27" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="I27" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="J27" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="K27" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="L27" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="M27" t="n" s="10">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="7">
+        <v>2015.0</v>
+      </c>
+      <c r="B28" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="C28" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="D28" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="E28" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="F28" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="G28" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="H28" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="I28" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="J28" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="K28" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="L28" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="M28" t="n" s="10">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="7">
+        <v>2016.0</v>
+      </c>
+      <c r="B29" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="C29" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="D29" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E29" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="F29" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="G29" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="H29" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="I29" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="J29" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="K29" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="L29" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="M29" t="n" s="10">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="7">
+        <v>2017.0</v>
+      </c>
+      <c r="B30" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="C30" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="D30" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="E30" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="F30" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="G30" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="H30" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="I30" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="J30" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="K30" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="L30" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="M30" t="n" s="10">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="7">
         <v>2018.0</v>
       </c>
-      <c r="B23" t="n" s="10">
+      <c r="B31" t="n" s="10">
         <v>4.1</v>
       </c>
-      <c r="C23" t="n" s="10">
+      <c r="C31" t="n" s="10">
         <v>4.1</v>
       </c>
-      <c r="D23" t="n" s="10">
+      <c r="D31" t="n" s="10">
         <v>4.0</v>
       </c>
-      <c r="E23" t="n" s="10">
+      <c r="E31" t="n" s="10">
         <v>3.9</v>
       </c>
-      <c r="F23" t="n" s="10">
+      <c r="F31" t="n" s="10">
         <v>3.8</v>
       </c>
-      <c r="G23" t="n" s="10">
+      <c r="G31" t="n" s="10">
         <v>4.0</v>
       </c>
-      <c r="H23" t="n" s="10">
+      <c r="H31" t="n" s="10">
         <v>3.9</v>
       </c>
-      <c r="I23" t="n" s="10">
+      <c r="I31" t="n" s="10">
         <v>3.8</v>
       </c>
-      <c r="J23" t="n" s="10">
+      <c r="J31" t="n" s="10">
         <v>3.7</v>
       </c>
-      <c r="K23" t="n" s="10">
+      <c r="K31" t="n" s="10">
         <v>3.8</v>
       </c>
-      <c r="L23" t="n" s="10">
+      <c r="L31" t="n" s="10">
         <v>3.7</v>
       </c>
-      <c r="M23" t="n" s="10">
+      <c r="M31" t="n" s="10">
         <v>3.9</v>
       </c>
     </row>
@@ -950,7 +1284,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 4, 2019 (01:43:03 PM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 4, 2019 (06:26:13 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
